--- a/contratos/contratos-2-2021.xlsx
+++ b/contratos/contratos-2-2021.xlsx
@@ -889,7 +889,7 @@
     <t>LOPEZ RICARDO FABIAN</t>
   </si>
   <si>
-    <t>PALACIOS, GERMAN ALEJANDRO</t>
+    <t>PALACIOS. GERMAN ALEJANDRO</t>
   </si>
   <si>
     <t>PEREYRA ANDREA BEATRIZ</t>
@@ -901,7 +901,7 @@
     <t>TECNOTRANS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>AGUILAR DANIEL ANTONIO</t>
@@ -1024,7 +1024,7 @@
     <t>PALMA RODOLFO GABRIEL</t>
   </si>
   <si>
-    <t>RONDONI, LUCIANO MATIAS</t>
+    <t>RONDONI. LUCIANO MATIAS</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -1048,7 +1048,7 @@
     <t>CENTINELA S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOSONE DANIEL ENRIQUE</t>
@@ -1171,10 +1171,10 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>OLIVERA, FLORENCIO</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>OLIVERA. FLORENCIO</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1201,7 +1201,7 @@
     <t>TURIN ALBERTO JOSE</t>
   </si>
   <si>
-    <t>BALDONI  ESTEBAN,BALDONI SEBASTIAN Y BALDONI LUCIANO S.H.</t>
+    <t>BALDONI  ESTEBAN.BALDONI SEBASTIAN Y BALDONI LUCIANO SH</t>
   </si>
   <si>
     <t>ROUSSEAUX MARTIN ANDRES</t>
@@ -1291,7 +1291,7 @@
     <t>COOPERATIVA DE TRABAJO URUGUAY BETEL LTDA.</t>
   </si>
   <si>
-    <t>DENING BLANCO, CRISTIAN DAVID</t>
+    <t>DENING BLANCO. CRISTIAN DAVID</t>
   </si>
   <si>
     <t>GOMEZ CESAR JULIAN</t>
@@ -1552,7 +1552,7 @@
     <t>MAGRI REPUESTOS</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t>MOVER</t>
@@ -1723,730 +1723,730 @@
     <t>16</t>
   </si>
   <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>34.800,00</t>
-  </si>
-  <si>
-    <t>26.500,00</t>
-  </si>
-  <si>
-    <t>399.000,00</t>
-  </si>
-  <si>
-    <t>712.569,00</t>
-  </si>
-  <si>
-    <t>1.103.333,33</t>
-  </si>
-  <si>
-    <t>962.000,00</t>
-  </si>
-  <si>
-    <t>980.000,00</t>
-  </si>
-  <si>
-    <t>5.929,00</t>
-  </si>
-  <si>
-    <t>53.475,00</t>
-  </si>
-  <si>
-    <t>8.970,00</t>
-  </si>
-  <si>
-    <t>4.760,00</t>
-  </si>
-  <si>
-    <t>110.010,00</t>
-  </si>
-  <si>
-    <t>50.522,70</t>
-  </si>
-  <si>
-    <t>876.000,00</t>
-  </si>
-  <si>
-    <t>1.087.999,50</t>
-  </si>
-  <si>
-    <t>37.773,44</t>
-  </si>
-  <si>
-    <t>40.800,00</t>
-  </si>
-  <si>
-    <t>53.680,00</t>
-  </si>
-  <si>
-    <t>21.449,00</t>
-  </si>
-  <si>
-    <t>1.104.747,64</t>
-  </si>
-  <si>
-    <t>510.766,43</t>
-  </si>
-  <si>
-    <t>248.569,60</t>
-  </si>
-  <si>
-    <t>776.138,18</t>
-  </si>
-  <si>
-    <t>19.181,25</t>
-  </si>
-  <si>
-    <t>3.510,00</t>
-  </si>
-  <si>
-    <t>1.569.431,36</t>
-  </si>
-  <si>
-    <t>8.960,00</t>
-  </si>
-  <si>
-    <t>39.525,00</t>
-  </si>
-  <si>
-    <t>1.001.770,00</t>
-  </si>
-  <si>
-    <t>70.592,60</t>
-  </si>
-  <si>
-    <t>62.149,39</t>
-  </si>
-  <si>
-    <t>115.874,86</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>15.800,00</t>
-  </si>
-  <si>
-    <t>1.977,60</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>259,20</t>
-  </si>
-  <si>
-    <t>138.436,29</t>
-  </si>
-  <si>
-    <t>21.885,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>963,63</t>
-  </si>
-  <si>
-    <t>83.220,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>23.698,72</t>
-  </si>
-  <si>
-    <t>6.850,12</t>
-  </si>
-  <si>
-    <t>13.245,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>170.000,00</t>
-  </si>
-  <si>
-    <t>195.007,36</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>207.029,79</t>
-  </si>
-  <si>
-    <t>304.459,94</t>
-  </si>
-  <si>
-    <t>43.230,34</t>
-  </si>
-  <si>
-    <t>1.185,98</t>
-  </si>
-  <si>
-    <t>12.552,14</t>
-  </si>
-  <si>
-    <t>64.484,04</t>
-  </si>
-  <si>
-    <t>18.255,00</t>
-  </si>
-  <si>
-    <t>362,19</t>
-  </si>
-  <si>
-    <t>231.867,45</t>
-  </si>
-  <si>
-    <t>835,36</t>
-  </si>
-  <si>
-    <t>9.233,00</t>
-  </si>
-  <si>
-    <t>2.030,00</t>
-  </si>
-  <si>
-    <t>880.168,80</t>
-  </si>
-  <si>
-    <t>612,48</t>
-  </si>
-  <si>
-    <t>13.387,80</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>35.676,64</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>6.482,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>28.379,11</t>
-  </si>
-  <si>
-    <t>25.825,00</t>
-  </si>
-  <si>
-    <t>6.720,00</t>
-  </si>
-  <si>
-    <t>8.027,70</t>
-  </si>
-  <si>
-    <t>6.122,60</t>
-  </si>
-  <si>
-    <t>61.700,00</t>
-  </si>
-  <si>
-    <t>16.985,50</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>265.900,00</t>
-  </si>
-  <si>
-    <t>42.890,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>505.824,00</t>
-  </si>
-  <si>
-    <t>13.099,80</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>24.835,00</t>
-  </si>
-  <si>
-    <t>27.830,00</t>
-  </si>
-  <si>
-    <t>140,40</t>
-  </si>
-  <si>
-    <t>1.960,00</t>
-  </si>
-  <si>
-    <t>104.950,00</t>
-  </si>
-  <si>
-    <t>43.150,00</t>
-  </si>
-  <si>
-    <t>36.720,00</t>
-  </si>
-  <si>
-    <t>178.525,00</t>
-  </si>
-  <si>
-    <t>602.642,00</t>
-  </si>
-  <si>
-    <t>23.988,00</t>
-  </si>
-  <si>
-    <t>12.520,00</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>5.541,27</t>
-  </si>
-  <si>
-    <t>28.140,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>28.700,00</t>
-  </si>
-  <si>
-    <t>19.690,00</t>
-  </si>
-  <si>
-    <t>62.940,00</t>
-  </si>
-  <si>
-    <t>276.620,00</t>
-  </si>
-  <si>
-    <t>4.985,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>905,00</t>
-  </si>
-  <si>
-    <t>5.679,50</t>
-  </si>
-  <si>
-    <t>6.670,00</t>
-  </si>
-  <si>
-    <t>322,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>12.681,00</t>
-  </si>
-  <si>
-    <t>4.520,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>10.355,00</t>
-  </si>
-  <si>
-    <t>6.075,00</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>172.137,39</t>
-  </si>
-  <si>
-    <t>955,00</t>
-  </si>
-  <si>
-    <t>51.085,00</t>
-  </si>
-  <si>
-    <t>2.087,00</t>
-  </si>
-  <si>
-    <t>71.673,00</t>
-  </si>
-  <si>
-    <t>21.800,57</t>
-  </si>
-  <si>
-    <t>33.470,00</t>
-  </si>
-  <si>
-    <t>2.722,50</t>
-  </si>
-  <si>
-    <t>38.390,00</t>
-  </si>
-  <si>
-    <t>32.053,00</t>
-  </si>
-  <si>
-    <t>8.690,00</t>
-  </si>
-  <si>
-    <t>390,90</t>
-  </si>
-  <si>
-    <t>16.940,00</t>
-  </si>
-  <si>
-    <t>28.900,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>274,50</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>85.385,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>10.140,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>3.931,37</t>
-  </si>
-  <si>
-    <t>103.378,58</t>
-  </si>
-  <si>
-    <t>749,24</t>
-  </si>
-  <si>
-    <t>13.233,79</t>
-  </si>
-  <si>
-    <t>32.900,00</t>
-  </si>
-  <si>
-    <t>6.720,35</t>
-  </si>
-  <si>
-    <t>4.040,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>10.350,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>45.000,02</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>350.000,00</t>
-  </si>
-  <si>
-    <t>6.480,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>61.690,00</t>
-  </si>
-  <si>
-    <t>89.100,00</t>
-  </si>
-  <si>
-    <t>41.980,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>893,80</t>
-  </si>
-  <si>
-    <t>1.338,67</t>
-  </si>
-  <si>
-    <t>42.842,48</t>
-  </si>
-  <si>
-    <t>2.978,80</t>
-  </si>
-  <si>
-    <t>14.374,80</t>
-  </si>
-  <si>
-    <t>18.637,29</t>
-  </si>
-  <si>
-    <t>17.018,00</t>
-  </si>
-  <si>
-    <t>15.352,69</t>
-  </si>
-  <si>
-    <t>61.100,00</t>
-  </si>
-  <si>
-    <t>9.890,00</t>
-  </si>
-  <si>
-    <t>84.950,00</t>
-  </si>
-  <si>
-    <t>20.004,00</t>
-  </si>
-  <si>
-    <t>5.290,00</t>
-  </si>
-  <si>
-    <t>24.133,00</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>12.780,00</t>
-  </si>
-  <si>
-    <t>3.550,00</t>
-  </si>
-  <si>
-    <t>87.024,05</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>15.730,00</t>
-  </si>
-  <si>
-    <t>267.000,00</t>
-  </si>
-  <si>
-    <t>13.672,60</t>
-  </si>
-  <si>
-    <t>1.265.999,90</t>
-  </si>
-  <si>
-    <t>476.000,00</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>26.369.689,32</t>
-  </si>
-  <si>
-    <t>445.720,00</t>
-  </si>
-  <si>
-    <t>387.020,00</t>
-  </si>
-  <si>
-    <t>409.350,00</t>
-  </si>
-  <si>
-    <t>355.000,00</t>
-  </si>
-  <si>
-    <t>418.000,00</t>
-  </si>
-  <si>
-    <t>678.000,00</t>
-  </si>
-  <si>
-    <t>926.200,00</t>
-  </si>
-  <si>
-    <t>1.053.000,00</t>
-  </si>
-  <si>
-    <t>529.181,00</t>
-  </si>
-  <si>
-    <t>710.000,00</t>
-  </si>
-  <si>
-    <t>747.280,00</t>
-  </si>
-  <si>
-    <t>701.100,00</t>
-  </si>
-  <si>
-    <t>1.043.000,00</t>
-  </si>
-  <si>
-    <t>725.320,00</t>
-  </si>
-  <si>
-    <t>1.041.860,00</t>
-  </si>
-  <si>
-    <t>388.503,33</t>
-  </si>
-  <si>
-    <t>762.300,00</t>
-  </si>
-  <si>
-    <t>397.225,00</t>
-  </si>
-  <si>
-    <t>1.961.645,50</t>
-  </si>
-  <si>
-    <t>1.508.684,23</t>
-  </si>
-  <si>
-    <t>5.515.828,54</t>
-  </si>
-  <si>
-    <t>20.757.741,28</t>
-  </si>
-  <si>
-    <t>288.000,00</t>
-  </si>
-  <si>
-    <t>779.000,00</t>
-  </si>
-  <si>
-    <t>429.947,82</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>161.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>21.900,00</t>
-  </si>
-  <si>
-    <t>180.207,50</t>
-  </si>
-  <si>
-    <t>147.468,75</t>
-  </si>
-  <si>
-    <t>7.970,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>26.540,00</t>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>34800.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>399000.00</t>
+  </si>
+  <si>
+    <t>712569.00</t>
+  </si>
+  <si>
+    <t>1103333.33</t>
+  </si>
+  <si>
+    <t>962000.00</t>
+  </si>
+  <si>
+    <t>980000.00</t>
+  </si>
+  <si>
+    <t>5929.00</t>
+  </si>
+  <si>
+    <t>53475.00</t>
+  </si>
+  <si>
+    <t>8970.00</t>
+  </si>
+  <si>
+    <t>4760.00</t>
+  </si>
+  <si>
+    <t>110010.00</t>
+  </si>
+  <si>
+    <t>50522.70</t>
+  </si>
+  <si>
+    <t>876000.00</t>
+  </si>
+  <si>
+    <t>1087999.50</t>
+  </si>
+  <si>
+    <t>37773.44</t>
+  </si>
+  <si>
+    <t>40800.00</t>
+  </si>
+  <si>
+    <t>53680.00</t>
+  </si>
+  <si>
+    <t>21449.00</t>
+  </si>
+  <si>
+    <t>1104747.64</t>
+  </si>
+  <si>
+    <t>510766.43</t>
+  </si>
+  <si>
+    <t>248569.60</t>
+  </si>
+  <si>
+    <t>776138.18</t>
+  </si>
+  <si>
+    <t>19181.25</t>
+  </si>
+  <si>
+    <t>3510.00</t>
+  </si>
+  <si>
+    <t>1569431.36</t>
+  </si>
+  <si>
+    <t>8960.00</t>
+  </si>
+  <si>
+    <t>39525.00</t>
+  </si>
+  <si>
+    <t>1001770.00</t>
+  </si>
+  <si>
+    <t>70592.60</t>
+  </si>
+  <si>
+    <t>62149.39</t>
+  </si>
+  <si>
+    <t>115874.86</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>15800.00</t>
+  </si>
+  <si>
+    <t>1977.60</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>259.20</t>
+  </si>
+  <si>
+    <t>138436.29</t>
+  </si>
+  <si>
+    <t>21885.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>963.63</t>
+  </si>
+  <si>
+    <t>83220.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>23698.72</t>
+  </si>
+  <si>
+    <t>6850.12</t>
+  </si>
+  <si>
+    <t>13245.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>170000.00</t>
+  </si>
+  <si>
+    <t>195007.36</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>207029.79</t>
+  </si>
+  <si>
+    <t>304459.94</t>
+  </si>
+  <si>
+    <t>43230.34</t>
+  </si>
+  <si>
+    <t>1185.98</t>
+  </si>
+  <si>
+    <t>12552.14</t>
+  </si>
+  <si>
+    <t>64484.04</t>
+  </si>
+  <si>
+    <t>18255.00</t>
+  </si>
+  <si>
+    <t>362.19</t>
+  </si>
+  <si>
+    <t>231867.45</t>
+  </si>
+  <si>
+    <t>835.36</t>
+  </si>
+  <si>
+    <t>9233.00</t>
+  </si>
+  <si>
+    <t>2030.00</t>
+  </si>
+  <si>
+    <t>880168.80</t>
+  </si>
+  <si>
+    <t>612.48</t>
+  </si>
+  <si>
+    <t>13387.80</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>35676.64</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>6482.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>28379.11</t>
+  </si>
+  <si>
+    <t>25825.00</t>
+  </si>
+  <si>
+    <t>6720.00</t>
+  </si>
+  <si>
+    <t>8027.70</t>
+  </si>
+  <si>
+    <t>6122.60</t>
+  </si>
+  <si>
+    <t>61700.00</t>
+  </si>
+  <si>
+    <t>16985.50</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>265900.00</t>
+  </si>
+  <si>
+    <t>42890.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>505824.00</t>
+  </si>
+  <si>
+    <t>13099.80</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>24835.00</t>
+  </si>
+  <si>
+    <t>27830.00</t>
+  </si>
+  <si>
+    <t>140.40</t>
+  </si>
+  <si>
+    <t>1960.00</t>
+  </si>
+  <si>
+    <t>104950.00</t>
+  </si>
+  <si>
+    <t>43150.00</t>
+  </si>
+  <si>
+    <t>36720.00</t>
+  </si>
+  <si>
+    <t>178525.00</t>
+  </si>
+  <si>
+    <t>602642.00</t>
+  </si>
+  <si>
+    <t>23988.00</t>
+  </si>
+  <si>
+    <t>12520.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>5541.27</t>
+  </si>
+  <si>
+    <t>28140.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>28700.00</t>
+  </si>
+  <si>
+    <t>19690.00</t>
+  </si>
+  <si>
+    <t>62940.00</t>
+  </si>
+  <si>
+    <t>276620.00</t>
+  </si>
+  <si>
+    <t>4985.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>905.00</t>
+  </si>
+  <si>
+    <t>5679.50</t>
+  </si>
+  <si>
+    <t>6670.00</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>12681.00</t>
+  </si>
+  <si>
+    <t>4520.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>10355.00</t>
+  </si>
+  <si>
+    <t>6075.00</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>172137.39</t>
+  </si>
+  <si>
+    <t>955.00</t>
+  </si>
+  <si>
+    <t>51085.00</t>
+  </si>
+  <si>
+    <t>2087.00</t>
+  </si>
+  <si>
+    <t>71673.00</t>
+  </si>
+  <si>
+    <t>21800.57</t>
+  </si>
+  <si>
+    <t>33470.00</t>
+  </si>
+  <si>
+    <t>2722.50</t>
+  </si>
+  <si>
+    <t>38390.00</t>
+  </si>
+  <si>
+    <t>32053.00</t>
+  </si>
+  <si>
+    <t>8690.00</t>
+  </si>
+  <si>
+    <t>390.90</t>
+  </si>
+  <si>
+    <t>16940.00</t>
+  </si>
+  <si>
+    <t>28900.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>274.50</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>85385.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>10140.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>3931.37</t>
+  </si>
+  <si>
+    <t>103378.58</t>
+  </si>
+  <si>
+    <t>749.24</t>
+  </si>
+  <si>
+    <t>13233.79</t>
+  </si>
+  <si>
+    <t>32900.00</t>
+  </si>
+  <si>
+    <t>6720.35</t>
+  </si>
+  <si>
+    <t>4040.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>10350.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>45000.02</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>350000.00</t>
+  </si>
+  <si>
+    <t>6480.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>61690.00</t>
+  </si>
+  <si>
+    <t>89100.00</t>
+  </si>
+  <si>
+    <t>41980.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>893.80</t>
+  </si>
+  <si>
+    <t>1338.67</t>
+  </si>
+  <si>
+    <t>42842.48</t>
+  </si>
+  <si>
+    <t>2978.80</t>
+  </si>
+  <si>
+    <t>14374.80</t>
+  </si>
+  <si>
+    <t>18637.29</t>
+  </si>
+  <si>
+    <t>17018.00</t>
+  </si>
+  <si>
+    <t>15352.69</t>
+  </si>
+  <si>
+    <t>61100.00</t>
+  </si>
+  <si>
+    <t>9890.00</t>
+  </si>
+  <si>
+    <t>84950.00</t>
+  </si>
+  <si>
+    <t>20004.00</t>
+  </si>
+  <si>
+    <t>5290.00</t>
+  </si>
+  <si>
+    <t>24133.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>12780.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>87024.05</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>15730.00</t>
+  </si>
+  <si>
+    <t>267000.00</t>
+  </si>
+  <si>
+    <t>13672.60</t>
+  </si>
+  <si>
+    <t>1265999.90</t>
+  </si>
+  <si>
+    <t>476000.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>26369689.32</t>
+  </si>
+  <si>
+    <t>445720.00</t>
+  </si>
+  <si>
+    <t>387020.00</t>
+  </si>
+  <si>
+    <t>409350.00</t>
+  </si>
+  <si>
+    <t>355000.00</t>
+  </si>
+  <si>
+    <t>418000.00</t>
+  </si>
+  <si>
+    <t>678000.00</t>
+  </si>
+  <si>
+    <t>926200.00</t>
+  </si>
+  <si>
+    <t>1053000.00</t>
+  </si>
+  <si>
+    <t>529181.00</t>
+  </si>
+  <si>
+    <t>710000.00</t>
+  </si>
+  <si>
+    <t>747280.00</t>
+  </si>
+  <si>
+    <t>701100.00</t>
+  </si>
+  <si>
+    <t>1043000.00</t>
+  </si>
+  <si>
+    <t>725320.00</t>
+  </si>
+  <si>
+    <t>1041860.00</t>
+  </si>
+  <si>
+    <t>388503.33</t>
+  </si>
+  <si>
+    <t>762300.00</t>
+  </si>
+  <si>
+    <t>397225.00</t>
+  </si>
+  <si>
+    <t>1961645.50</t>
+  </si>
+  <si>
+    <t>1508684.23</t>
+  </si>
+  <si>
+    <t>5515828.54</t>
+  </si>
+  <si>
+    <t>20757741.28</t>
+  </si>
+  <si>
+    <t>288000.00</t>
+  </si>
+  <si>
+    <t>779000.00</t>
+  </si>
+  <si>
+    <t>429947.82</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>21900.00</t>
+  </si>
+  <si>
+    <t>180207.50</t>
+  </si>
+  <si>
+    <t>147468.75</t>
+  </si>
+  <si>
+    <t>7970.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>26540.00</t>
   </si>
 </sst>
 </file>
